--- a/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB861EC-34B9-4A21-9A88-9EA59E3A65EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView xWindow="-24900" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSchedule|卡池" sheetId="1" r:id="rId1"/>
@@ -13,22 +19,36 @@
     <sheet name="抽卡交互楼层按钮" sheetId="5" r:id="rId4"/>
     <sheet name="卡池详情配置" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>本次获得几个3星异质物，就会出现几个特殊按钮</t>
@@ -40,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="156">
   <si>
     <t>卡池id</t>
   </si>
@@ -117,6 +137,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -127,6 +148,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>mountType</t>
@@ -154,6 +176,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>daily</t>
@@ -164,6 +187,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Limit</t>
@@ -186,18 +210,6 @@
   </si>
   <si>
     <t>aint</t>
-  </si>
-  <si>
-    <t>LimitState</t>
-  </si>
-  <si>
-    <t>IN:[1;2]</t>
-  </si>
-  <si>
-    <t>1:{ID:Item}</t>
-  </si>
-  <si>
-    <t>ID_OR_NULL:Item</t>
   </si>
   <si>
     <t>异质探测</t>
@@ -245,6 +257,7 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落id（分段</t>
@@ -255,6 +268,7 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0:小于等于标准3星次数；1:大于标准3星次数小于等于有钱人3星次数；2：大于有钱人3星次数）</t>
@@ -552,9 +566,6 @@
     <t>special</t>
   </si>
   <si>
-    <t>IN:[0;1]</t>
-  </si>
-  <si>
     <t>描述表</t>
   </si>
   <si>
@@ -585,14 +596,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,6 +610,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -612,164 +618,38 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,204 +670,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399517807550279"/>
+        <fgColor theme="3" tint="0.39948728904080327"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1010,277 +704,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1292,15 +738,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1308,62 +745,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1650,19 +1043,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
@@ -1677,7 +1071,7 @@
     <col min="16" max="16" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1777,7 +1171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -1827,143 +1221,117 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="12" t="s">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="5" t="s">
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="G4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="9">
+        <v>10</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>201000</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>42</v>
+      <c r="E5" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="14">
+      <c r="G5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="9">
         <v>10</v>
       </c>
-      <c r="I5" s="14">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>201000</v>
+      <c r="I5" s="9">
+        <v>1</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="14">
-        <v>10</v>
-      </c>
-      <c r="I6" s="14">
-        <v>1</v>
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>201000</v>
       </c>
       <c r="N6">
         <v>100</v>
       </c>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="14">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>201000</v>
-      </c>
-      <c r="N7">
-        <v>100</v>
-      </c>
-      <c r="P7" s="8"/>
+      <c r="P6" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E448"/>
   <sheetViews>
@@ -1971,42 +1339,42 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -2020,7 +1388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2030,12 +1398,12 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2045,12 +1413,12 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2060,12 +1428,12 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2075,12 +1443,12 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2090,12 +1458,12 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2105,12 +1473,12 @@
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2120,12 +1488,12 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2135,12 +1503,12 @@
       <c r="C11">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="D11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2150,12 +1518,12 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2165,12 +1533,12 @@
       <c r="C13">
         <v>9</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="D13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2180,12 +1548,12 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2195,12 +1563,12 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2210,12 +1578,12 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2225,12 +1593,12 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2240,12 +1608,12 @@
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2255,12 +1623,12 @@
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="D19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2270,12 +1638,12 @@
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2285,12 +1653,12 @@
       <c r="C21">
         <v>7</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="D21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2300,12 +1668,12 @@
       <c r="C22">
         <v>8</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2315,12 +1683,12 @@
       <c r="C23">
         <v>9</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2330,12 +1698,12 @@
       <c r="C24">
         <v>10</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="D24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2345,12 +1713,12 @@
       <c r="C25">
         <v>11</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="D25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2360,12 +1728,12 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="D26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2375,12 +1743,12 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="D27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2390,12 +1758,12 @@
       <c r="C28">
         <v>14</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2405,11 +1773,11 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2419,11 +1787,11 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2433,11 +1801,11 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2447,11 +1815,11 @@
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2461,11 +1829,11 @@
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2475,11 +1843,11 @@
       <c r="C34">
         <v>5</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2489,11 +1857,11 @@
       <c r="C35">
         <v>6</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2503,11 +1871,11 @@
       <c r="C36">
         <v>7</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="D36" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2517,11 +1885,11 @@
       <c r="C37">
         <v>8</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="D37" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2531,11 +1899,11 @@
       <c r="C38">
         <v>9</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="D38" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2545,11 +1913,11 @@
       <c r="C39">
         <v>10</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="D39" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2559,11 +1927,11 @@
       <c r="C40">
         <v>11</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="D40" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2573,11 +1941,11 @@
       <c r="C41">
         <v>12</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="D41" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2587,11 +1955,11 @@
       <c r="C42">
         <v>13</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="D42" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2601,11 +1969,11 @@
       <c r="C43">
         <v>14</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="D43" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2615,11 +1983,11 @@
       <c r="C44">
         <v>15</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2629,11 +1997,11 @@
       <c r="C45">
         <v>16</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2643,11 +2011,11 @@
       <c r="C46">
         <v>17</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2657,11 +2025,11 @@
       <c r="C47">
         <v>18</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2671,11 +2039,11 @@
       <c r="C48">
         <v>19</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="D48" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2685,11 +2053,11 @@
       <c r="C49">
         <v>20</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="D49" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -2699,11 +2067,11 @@
       <c r="C50">
         <v>21</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="D50" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -2713,11 +2081,11 @@
       <c r="C51">
         <v>22</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="D51" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -2727,11 +2095,11 @@
       <c r="C52">
         <v>23</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="D52" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -2741,11 +2109,11 @@
       <c r="C53">
         <v>24</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="D53" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>51</v>
       </c>
@@ -2755,11 +2123,11 @@
       <c r="C54">
         <v>25</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="D54" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>52</v>
       </c>
@@ -2769,11 +2137,11 @@
       <c r="C55">
         <v>26</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="D55" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>53</v>
       </c>
@@ -2783,11 +2151,11 @@
       <c r="C56">
         <v>27</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="D56" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>54</v>
       </c>
@@ -2797,11 +2165,11 @@
       <c r="C57">
         <v>28</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="D57" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>55</v>
       </c>
@@ -2811,11 +2179,11 @@
       <c r="C58">
         <v>29</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="D58" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>56</v>
       </c>
@@ -2825,11 +2193,11 @@
       <c r="C59">
         <v>30</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="D59" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>57</v>
       </c>
@@ -2839,11 +2207,11 @@
       <c r="C60">
         <v>31</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="D60" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>58</v>
       </c>
@@ -2853,11 +2221,11 @@
       <c r="C61">
         <v>32</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="D61" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>59</v>
       </c>
@@ -2867,11 +2235,11 @@
       <c r="C62">
         <v>33</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="D62" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>60</v>
       </c>
@@ -2881,11 +2249,11 @@
       <c r="C63">
         <v>34</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="D63" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>61</v>
       </c>
@@ -2895,11 +2263,11 @@
       <c r="C64">
         <v>35</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="D64" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>62</v>
       </c>
@@ -2909,11 +2277,11 @@
       <c r="C65">
         <v>36</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="D65" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>63</v>
       </c>
@@ -2923,11 +2291,11 @@
       <c r="C66">
         <v>37</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="D66" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>64</v>
       </c>
@@ -2937,11 +2305,11 @@
       <c r="C67">
         <v>38</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="D67" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>65</v>
       </c>
@@ -2951,11 +2319,11 @@
       <c r="C68">
         <v>39</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="D68" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>66</v>
       </c>
@@ -2965,11 +2333,11 @@
       <c r="C69">
         <v>40</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>67</v>
       </c>
@@ -2979,11 +2347,11 @@
       <c r="C70">
         <v>41</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>68</v>
       </c>
@@ -2993,11 +2361,11 @@
       <c r="C71">
         <v>42</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="D71" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>69</v>
       </c>
@@ -3007,11 +2375,11 @@
       <c r="C72">
         <v>43</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="D72" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>70</v>
       </c>
@@ -3021,11 +2389,11 @@
       <c r="C73">
         <v>44</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="D73" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>71</v>
       </c>
@@ -3035,11 +2403,11 @@
       <c r="C74">
         <v>45</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="D74" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>72</v>
       </c>
@@ -3049,11 +2417,11 @@
       <c r="C75">
         <v>46</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="D75" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>73</v>
       </c>
@@ -3063,11 +2431,11 @@
       <c r="C76">
         <v>47</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="D76" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>74</v>
       </c>
@@ -3077,11 +2445,11 @@
       <c r="C77">
         <v>48</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="D77" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>75</v>
       </c>
@@ -3091,11 +2459,11 @@
       <c r="C78">
         <v>49</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="D78" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>76</v>
       </c>
@@ -3105,11 +2473,11 @@
       <c r="C79">
         <v>50</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="D79" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>77</v>
       </c>
@@ -3119,11 +2487,11 @@
       <c r="C80">
         <v>51</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="D80" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>78</v>
       </c>
@@ -3133,11 +2501,11 @@
       <c r="C81">
         <v>52</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="D81" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>79</v>
       </c>
@@ -3147,11 +2515,11 @@
       <c r="C82">
         <v>53</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="D82" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>80</v>
       </c>
@@ -3161,11 +2529,11 @@
       <c r="C83">
         <v>54</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="D83" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>81</v>
       </c>
@@ -3175,11 +2543,11 @@
       <c r="C84">
         <v>55</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="D84" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>82</v>
       </c>
@@ -3189,11 +2557,11 @@
       <c r="C85">
         <v>56</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="D85" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>83</v>
       </c>
@@ -3203,11 +2571,11 @@
       <c r="C86">
         <v>57</v>
       </c>
-      <c r="D86" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="D86" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>84</v>
       </c>
@@ -3217,11 +2585,11 @@
       <c r="C87">
         <v>58</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="D87" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>85</v>
       </c>
@@ -3231,11 +2599,11 @@
       <c r="C88">
         <v>59</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="D88" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>86</v>
       </c>
@@ -3245,11 +2613,11 @@
       <c r="C89">
         <v>60</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="D89" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>87</v>
       </c>
@@ -3259,11 +2627,11 @@
       <c r="C90">
         <v>61</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="D90" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>88</v>
       </c>
@@ -3273,11 +2641,11 @@
       <c r="C91">
         <v>62</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="D91" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>89</v>
       </c>
@@ -3287,11 +2655,11 @@
       <c r="C92">
         <v>63</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="D92" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>90</v>
       </c>
@@ -3301,11 +2669,11 @@
       <c r="C93">
         <v>64</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="D93" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>91</v>
       </c>
@@ -3315,11 +2683,11 @@
       <c r="C94">
         <v>65</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="D94" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3329,11 +2697,11 @@
       <c r="C95">
         <v>66</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="D95" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>93</v>
       </c>
@@ -3343,11 +2711,11 @@
       <c r="C96">
         <v>67</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="D96" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>94</v>
       </c>
@@ -3357,11 +2725,11 @@
       <c r="C97">
         <v>68</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="D97" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>95</v>
       </c>
@@ -3371,11 +2739,11 @@
       <c r="C98">
         <v>69</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="D98" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>96</v>
       </c>
@@ -3386,11 +2754,11 @@
       <c r="C99">
         <v>0</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="D99" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>97</v>
       </c>
@@ -3401,11 +2769,11 @@
       <c r="C100">
         <v>1</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="D100" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>98</v>
       </c>
@@ -3416,11 +2784,11 @@
       <c r="C101">
         <v>2</v>
       </c>
-      <c r="D101" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="D101" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>99</v>
       </c>
@@ -3431,11 +2799,11 @@
       <c r="C102">
         <v>3</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="D102" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>100</v>
       </c>
@@ -3446,11 +2814,11 @@
       <c r="C103">
         <v>4</v>
       </c>
-      <c r="D103" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="D103" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>101</v>
       </c>
@@ -3461,11 +2829,11 @@
       <c r="C104">
         <v>5</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="D104" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>102</v>
       </c>
@@ -3476,11 +2844,11 @@
       <c r="C105">
         <v>6</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="D105" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>103</v>
       </c>
@@ -3491,11 +2859,11 @@
       <c r="C106">
         <v>7</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="D106" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>104</v>
       </c>
@@ -3506,11 +2874,11 @@
       <c r="C107">
         <v>8</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="D107" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>105</v>
       </c>
@@ -3521,11 +2889,11 @@
       <c r="C108">
         <v>9</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="D108" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>106</v>
       </c>
@@ -3536,11 +2904,11 @@
       <c r="C109">
         <v>10</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="D109" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>107</v>
       </c>
@@ -3551,11 +2919,11 @@
       <c r="C110">
         <v>11</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="D110" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>108</v>
       </c>
@@ -3566,11 +2934,11 @@
       <c r="C111">
         <v>12</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="D111" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>109</v>
       </c>
@@ -3581,11 +2949,11 @@
       <c r="C112">
         <v>13</v>
       </c>
-      <c r="D112" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="D112" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>110</v>
       </c>
@@ -3596,11 +2964,11 @@
       <c r="C113">
         <v>14</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="D113" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>111</v>
       </c>
@@ -3611,11 +2979,11 @@
       <c r="C114">
         <v>15</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="D114" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>112</v>
       </c>
@@ -3626,11 +2994,11 @@
       <c r="C115">
         <v>16</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="D115" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>113</v>
       </c>
@@ -3641,11 +3009,11 @@
       <c r="C116">
         <v>17</v>
       </c>
-      <c r="D116" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="D116" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>114</v>
       </c>
@@ -3656,11 +3024,11 @@
       <c r="C117">
         <v>18</v>
       </c>
-      <c r="D117" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="D117" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>115</v>
       </c>
@@ -3671,11 +3039,11 @@
       <c r="C118">
         <v>19</v>
       </c>
-      <c r="D118" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="D118" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>116</v>
       </c>
@@ -3686,11 +3054,11 @@
       <c r="C119">
         <v>20</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="D119" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>117</v>
       </c>
@@ -3701,11 +3069,11 @@
       <c r="C120">
         <v>21</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="D120" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>118</v>
       </c>
@@ -3716,11 +3084,11 @@
       <c r="C121">
         <v>22</v>
       </c>
-      <c r="D121" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="D121" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>119</v>
       </c>
@@ -3731,11 +3099,11 @@
       <c r="C122">
         <v>23</v>
       </c>
-      <c r="D122" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="D122" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>120</v>
       </c>
@@ -3746,11 +3114,11 @@
       <c r="C123">
         <v>24</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="D123" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>121</v>
       </c>
@@ -3761,11 +3129,11 @@
       <c r="C124">
         <v>25</v>
       </c>
-      <c r="D124" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="D124" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>122</v>
       </c>
@@ -3776,11 +3144,11 @@
       <c r="C125">
         <v>26</v>
       </c>
-      <c r="D125" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="D125" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>123</v>
       </c>
@@ -3791,11 +3159,11 @@
       <c r="C126">
         <v>27</v>
       </c>
-      <c r="D126" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="D126" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>124</v>
       </c>
@@ -3806,11 +3174,11 @@
       <c r="C127">
         <v>28</v>
       </c>
-      <c r="D127" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="D127" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>125</v>
       </c>
@@ -3821,11 +3189,11 @@
       <c r="C128">
         <v>29</v>
       </c>
-      <c r="D128" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="D128" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>126</v>
       </c>
@@ -3836,11 +3204,11 @@
       <c r="C129">
         <v>30</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="D129" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>127</v>
       </c>
@@ -3851,11 +3219,11 @@
       <c r="C130">
         <v>31</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="D130" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>128</v>
       </c>
@@ -3866,11 +3234,11 @@
       <c r="C131">
         <v>32</v>
       </c>
-      <c r="D131" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="D131" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>129</v>
       </c>
@@ -3881,11 +3249,11 @@
       <c r="C132">
         <v>33</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="D132" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>130</v>
       </c>
@@ -3896,11 +3264,11 @@
       <c r="C133">
         <v>34</v>
       </c>
-      <c r="D133" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="D133" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>131</v>
       </c>
@@ -3911,11 +3279,11 @@
       <c r="C134">
         <v>35</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="D134" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>132</v>
       </c>
@@ -3926,11 +3294,11 @@
       <c r="C135">
         <v>36</v>
       </c>
-      <c r="D135" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="D135" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>133</v>
       </c>
@@ -3941,11 +3309,11 @@
       <c r="C136">
         <v>37</v>
       </c>
-      <c r="D136" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="D136" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>134</v>
       </c>
@@ -3956,11 +3324,11 @@
       <c r="C137">
         <v>38</v>
       </c>
-      <c r="D137" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="D137" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>135</v>
       </c>
@@ -3971,11 +3339,11 @@
       <c r="C138">
         <v>39</v>
       </c>
-      <c r="D138" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="D138" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>136</v>
       </c>
@@ -3986,11 +3354,11 @@
       <c r="C139">
         <v>40</v>
       </c>
-      <c r="D139" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="D139" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>137</v>
       </c>
@@ -4001,11 +3369,11 @@
       <c r="C140">
         <v>41</v>
       </c>
-      <c r="D140" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="D140" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>138</v>
       </c>
@@ -4016,11 +3384,11 @@
       <c r="C141">
         <v>42</v>
       </c>
-      <c r="D141" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="D141" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>139</v>
       </c>
@@ -4031,11 +3399,11 @@
       <c r="C142">
         <v>43</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="D142" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>140</v>
       </c>
@@ -4046,11 +3414,11 @@
       <c r="C143">
         <v>44</v>
       </c>
-      <c r="D143" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="D143" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>141</v>
       </c>
@@ -4061,11 +3429,11 @@
       <c r="C144">
         <v>45</v>
       </c>
-      <c r="D144" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="D144" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>142</v>
       </c>
@@ -4076,11 +3444,11 @@
       <c r="C145">
         <v>46</v>
       </c>
-      <c r="D145" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="D145" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>143</v>
       </c>
@@ -4091,11 +3459,11 @@
       <c r="C146">
         <v>47</v>
       </c>
-      <c r="D146" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="D146" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>144</v>
       </c>
@@ -4106,11 +3474,11 @@
       <c r="C147">
         <v>48</v>
       </c>
-      <c r="D147" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="D147" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>145</v>
       </c>
@@ -4121,11 +3489,11 @@
       <c r="C148">
         <v>49</v>
       </c>
-      <c r="D148" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="D148" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>146</v>
       </c>
@@ -4136,11 +3504,11 @@
       <c r="C149">
         <v>50</v>
       </c>
-      <c r="D149" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="D149" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>147</v>
       </c>
@@ -4151,11 +3519,11 @@
       <c r="C150">
         <v>51</v>
       </c>
-      <c r="D150" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="D150" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>148</v>
       </c>
@@ -4166,11 +3534,11 @@
       <c r="C151">
         <v>52</v>
       </c>
-      <c r="D151" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="D151" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>149</v>
       </c>
@@ -4181,11 +3549,11 @@
       <c r="C152">
         <v>53</v>
       </c>
-      <c r="D152" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="D152" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>150</v>
       </c>
@@ -4196,11 +3564,11 @@
       <c r="C153">
         <v>54</v>
       </c>
-      <c r="D153" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="D153" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>151</v>
       </c>
@@ -4211,11 +3579,11 @@
       <c r="C154">
         <v>55</v>
       </c>
-      <c r="D154" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="D154" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>152</v>
       </c>
@@ -4226,11 +3594,11 @@
       <c r="C155">
         <v>56</v>
       </c>
-      <c r="D155" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="D155" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>153</v>
       </c>
@@ -4241,11 +3609,11 @@
       <c r="C156">
         <v>57</v>
       </c>
-      <c r="D156" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="D156" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>154</v>
       </c>
@@ -4256,11 +3624,11 @@
       <c r="C157">
         <v>58</v>
       </c>
-      <c r="D157" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="D157" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>155</v>
       </c>
@@ -4271,11 +3639,11 @@
       <c r="C158">
         <v>59</v>
       </c>
-      <c r="D158" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="D158" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>156</v>
       </c>
@@ -4286,11 +3654,11 @@
       <c r="C159">
         <v>60</v>
       </c>
-      <c r="D159" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="D159" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>157</v>
       </c>
@@ -4301,11 +3669,11 @@
       <c r="C160">
         <v>61</v>
       </c>
-      <c r="D160" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="D160" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>158</v>
       </c>
@@ -4316,11 +3684,11 @@
       <c r="C161">
         <v>62</v>
       </c>
-      <c r="D161" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="D161" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>159</v>
       </c>
@@ -4331,11 +3699,11 @@
       <c r="C162">
         <v>63</v>
       </c>
-      <c r="D162" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="D162" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>160</v>
       </c>
@@ -4346,11 +3714,11 @@
       <c r="C163">
         <v>64</v>
       </c>
-      <c r="D163" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="D163" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>161</v>
       </c>
@@ -4361,11 +3729,11 @@
       <c r="C164">
         <v>65</v>
       </c>
-      <c r="D164" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="D164" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>162</v>
       </c>
@@ -4376,11 +3744,11 @@
       <c r="C165">
         <v>66</v>
       </c>
-      <c r="D165" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="D165" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>163</v>
       </c>
@@ -4391,11 +3759,11 @@
       <c r="C166">
         <v>67</v>
       </c>
-      <c r="D166" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="D166" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>164</v>
       </c>
@@ -4406,11 +3774,11 @@
       <c r="C167">
         <v>68</v>
       </c>
-      <c r="D167" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="D167" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>165</v>
       </c>
@@ -4421,11 +3789,11 @@
       <c r="C168">
         <v>69</v>
       </c>
-      <c r="D168" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="D168" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>166</v>
       </c>
@@ -4442,7 +3810,7 @@
         <v>1010001|1011001|1012001</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>167</v>
       </c>
@@ -4459,7 +3827,7 @@
         <v>1010002|1011002|1012002</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>168</v>
       </c>
@@ -4476,7 +3844,7 @@
         <v>1010003|1011003|1012003</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>169</v>
       </c>
@@ -4493,7 +3861,7 @@
         <v>1010004|1011004|1012004</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>170</v>
       </c>
@@ -4510,7 +3878,7 @@
         <v>1010005|1011005|1012005</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>171</v>
       </c>
@@ -4527,7 +3895,7 @@
         <v>1010006|1011006|1012006</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>172</v>
       </c>
@@ -4544,7 +3912,7 @@
         <v>1010007|1011007|1012007</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>173</v>
       </c>
@@ -4561,7 +3929,7 @@
         <v>1010008|1011008|1012008</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>174</v>
       </c>
@@ -4578,7 +3946,7 @@
         <v>1010009|1011009|1012009</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>175</v>
       </c>
@@ -4595,7 +3963,7 @@
         <v>1010010|1011010|1012010</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>176</v>
       </c>
@@ -4612,7 +3980,7 @@
         <v>1010011|1011011|1012011</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>177</v>
       </c>
@@ -4629,7 +3997,7 @@
         <v>1010012|1011012|1012012</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>178</v>
       </c>
@@ -4646,7 +4014,7 @@
         <v>1010013|1011013|1012013</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>179</v>
       </c>
@@ -4663,7 +4031,7 @@
         <v>1010014|1011014|1012014</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>180</v>
       </c>
@@ -4680,7 +4048,7 @@
         <v>1010015|1011015|1012015</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>181</v>
       </c>
@@ -4697,7 +4065,7 @@
         <v>1010016|1011016|1012016</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>182</v>
       </c>
@@ -4714,7 +4082,7 @@
         <v>1010017|1011017|1012017</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>183</v>
       </c>
@@ -4731,7 +4099,7 @@
         <v>1010018|1011018|1012018</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>184</v>
       </c>
@@ -4748,7 +4116,7 @@
         <v>1010019|1011019|1012019</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>185</v>
       </c>
@@ -4765,7 +4133,7 @@
         <v>1010020|1011020|1012020</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>186</v>
       </c>
@@ -4782,7 +4150,7 @@
         <v>1010021|1011021|1012021</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>187</v>
       </c>
@@ -4799,7 +4167,7 @@
         <v>1010022|1011022|1012022</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>188</v>
       </c>
@@ -4816,7 +4184,7 @@
         <v>1010023|1011023|1012023</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>189</v>
       </c>
@@ -4833,7 +4201,7 @@
         <v>1010024|1011024|1012024</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>190</v>
       </c>
@@ -4850,7 +4218,7 @@
         <v>1010025|1011025|1012025</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>191</v>
       </c>
@@ -4867,7 +4235,7 @@
         <v>1010026|1011026|1012026</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>192</v>
       </c>
@@ -4884,7 +4252,7 @@
         <v>1010027|1011027|1012027</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>193</v>
       </c>
@@ -4901,7 +4269,7 @@
         <v>1010028|1011028|1012028</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>194</v>
       </c>
@@ -4918,7 +4286,7 @@
         <v>1010029|1011029|1012029</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>195</v>
       </c>
@@ -4935,7 +4303,7 @@
         <v>1010030|1011030|1012030</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>196</v>
       </c>
@@ -4952,7 +4320,7 @@
         <v>1010031|1011031|1012031</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>197</v>
       </c>
@@ -4969,7 +4337,7 @@
         <v>1010032|1011032|1012032</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>198</v>
       </c>
@@ -4986,7 +4354,7 @@
         <v>1010033|1011033|1012033</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>199</v>
       </c>
@@ -5003,7 +4371,7 @@
         <v>1010034|1011034|1012034</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>200</v>
       </c>
@@ -5020,7 +4388,7 @@
         <v>1010035|1011035|1012035</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>201</v>
       </c>
@@ -5037,7 +4405,7 @@
         <v>1010036|1011036|1012036</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>202</v>
       </c>
@@ -5054,7 +4422,7 @@
         <v>1010037|1011037|1012037</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>203</v>
       </c>
@@ -5071,7 +4439,7 @@
         <v>1010038|1011038|1012038</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>204</v>
       </c>
@@ -5088,7 +4456,7 @@
         <v>1010039|1011039|1012039</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>205</v>
       </c>
@@ -5105,7 +4473,7 @@
         <v>1010040|1011040|1012040</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>206</v>
       </c>
@@ -5122,7 +4490,7 @@
         <v>1010041|1011041|1012041</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>207</v>
       </c>
@@ -5139,7 +4507,7 @@
         <v>1010042|1011042|1012042</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>208</v>
       </c>
@@ -5156,7 +4524,7 @@
         <v>1010043|1011043|1012043</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>209</v>
       </c>
@@ -5173,7 +4541,7 @@
         <v>1010044|1011044|1012044</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>210</v>
       </c>
@@ -5190,7 +4558,7 @@
         <v>1010045|1011045|1012045</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>211</v>
       </c>
@@ -5207,7 +4575,7 @@
         <v>1010046|1011046|1012046</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>212</v>
       </c>
@@ -5224,7 +4592,7 @@
         <v>1010047|1011047|1012047</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>213</v>
       </c>
@@ -5241,7 +4609,7 @@
         <v>1010048|1011048|1012048</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>214</v>
       </c>
@@ -5258,7 +4626,7 @@
         <v>1010049|1011049|1012049</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>215</v>
       </c>
@@ -5275,7 +4643,7 @@
         <v>1010050|1011050|1012050</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>216</v>
       </c>
@@ -5292,7 +4660,7 @@
         <v>1010051|1011051|1012051</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>217</v>
       </c>
@@ -5309,7 +4677,7 @@
         <v>1010052|1011052|1012052</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>218</v>
       </c>
@@ -5326,7 +4694,7 @@
         <v>1010053|1011053|1012053</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>219</v>
       </c>
@@ -5343,7 +4711,7 @@
         <v>1010054|1011054|1012054</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>220</v>
       </c>
@@ -5360,7 +4728,7 @@
         <v>1010055|1011055|1012055</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>221</v>
       </c>
@@ -5377,7 +4745,7 @@
         <v>1010056|1011056|1012056</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>222</v>
       </c>
@@ -5394,7 +4762,7 @@
         <v>1010057|1011057|1012057</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>223</v>
       </c>
@@ -5411,7 +4779,7 @@
         <v>1010058|1011058|1012058</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>224</v>
       </c>
@@ -5428,7 +4796,7 @@
         <v>1010059|1011059|1012059</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>225</v>
       </c>
@@ -5445,7 +4813,7 @@
         <v>1010060|1011060|1012060</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>226</v>
       </c>
@@ -5462,7 +4830,7 @@
         <v>1010061|1011061|1012061</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>227</v>
       </c>
@@ -5479,7 +4847,7 @@
         <v>1010062|1011062|1012062</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>228</v>
       </c>
@@ -5496,7 +4864,7 @@
         <v>1010063|1011063|1012063</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>229</v>
       </c>
@@ -5513,7 +4881,7 @@
         <v>1010064|1011064|1012064</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>230</v>
       </c>
@@ -5530,7 +4898,7 @@
         <v>1010065|1011065|1012065</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>231</v>
       </c>
@@ -5547,7 +4915,7 @@
         <v>1010066|1011066|1012066</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>232</v>
       </c>
@@ -5564,7 +4932,7 @@
         <v>1010067|1011067|1012067</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>233</v>
       </c>
@@ -5581,7 +4949,7 @@
         <v>1010068|1011068|1012068</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>234</v>
       </c>
@@ -5598,7 +4966,7 @@
         <v>1010069|1011069|1012069</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>235</v>
       </c>
@@ -5615,7 +4983,7 @@
         <v>1010070|1011070|1012070</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>236</v>
       </c>
@@ -5632,7 +5000,7 @@
         <v>1010001|1011001|1012001</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>237</v>
       </c>
@@ -5649,7 +5017,7 @@
         <v>1010002|1011002|1012002</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>238</v>
       </c>
@@ -5666,7 +5034,7 @@
         <v>1010003|1011003|1012003</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>239</v>
       </c>
@@ -5683,7 +5051,7 @@
         <v>1010004|1011004|1012004</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>240</v>
       </c>
@@ -5700,7 +5068,7 @@
         <v>1010005|1011005|1012005</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>241</v>
       </c>
@@ -5717,7 +5085,7 @@
         <v>1010006|1011006|1012006</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>242</v>
       </c>
@@ -5734,7 +5102,7 @@
         <v>1010007|1011007|1012007</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>243</v>
       </c>
@@ -5751,7 +5119,7 @@
         <v>1010008|1011008|1012008</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>244</v>
       </c>
@@ -5768,7 +5136,7 @@
         <v>1010009|1011009|1012009</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>245</v>
       </c>
@@ -5785,7 +5153,7 @@
         <v>1010010|1011010|1012010</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>246</v>
       </c>
@@ -5802,7 +5170,7 @@
         <v>1010011|1011011|1012011</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>247</v>
       </c>
@@ -5819,7 +5187,7 @@
         <v>1010012|1011012|1012012</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>248</v>
       </c>
@@ -5836,7 +5204,7 @@
         <v>1010013|1011013|1012013</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>249</v>
       </c>
@@ -5853,7 +5221,7 @@
         <v>1010014|1011014|1012014</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>250</v>
       </c>
@@ -5870,7 +5238,7 @@
         <v>1010015|1011015|1012015</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>251</v>
       </c>
@@ -5887,7 +5255,7 @@
         <v>1010016|1011016|1012016</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>252</v>
       </c>
@@ -5904,7 +5272,7 @@
         <v>1010017|1011017|1012017</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>253</v>
       </c>
@@ -5921,7 +5289,7 @@
         <v>1010018|1011018|1012018</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>254</v>
       </c>
@@ -5938,7 +5306,7 @@
         <v>1010019|1011019|1012019</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>255</v>
       </c>
@@ -5955,7 +5323,7 @@
         <v>1010020|1011020|1012020</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>256</v>
       </c>
@@ -5972,7 +5340,7 @@
         <v>1010021|1011021|1012021</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>257</v>
       </c>
@@ -5989,7 +5357,7 @@
         <v>1010022|1011022|1012022</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>258</v>
       </c>
@@ -6006,7 +5374,7 @@
         <v>1010023|1011023|1012023</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>259</v>
       </c>
@@ -6023,7 +5391,7 @@
         <v>1010024|1011024|1012024</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>260</v>
       </c>
@@ -6040,7 +5408,7 @@
         <v>1010025|1011025|1012025</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>261</v>
       </c>
@@ -6057,7 +5425,7 @@
         <v>1010026|1011026|1012026</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>262</v>
       </c>
@@ -6074,7 +5442,7 @@
         <v>1010027|1011027|1012027</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>263</v>
       </c>
@@ -6091,7 +5459,7 @@
         <v>1010028|1011028|1012028</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>264</v>
       </c>
@@ -6108,7 +5476,7 @@
         <v>1010029|1011029|1012029</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>265</v>
       </c>
@@ -6125,7 +5493,7 @@
         <v>1010030|1011030|1012030</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>266</v>
       </c>
@@ -6142,7 +5510,7 @@
         <v>1010031|1011031|1012031</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>267</v>
       </c>
@@ -6159,7 +5527,7 @@
         <v>1010032|1011032|1012032</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>268</v>
       </c>
@@ -6176,7 +5544,7 @@
         <v>1010033|1011033|1012033</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>269</v>
       </c>
@@ -6193,7 +5561,7 @@
         <v>1010034|1011034|1012034</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>270</v>
       </c>
@@ -6210,7 +5578,7 @@
         <v>1010035|1011035|1012035</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>271</v>
       </c>
@@ -6227,7 +5595,7 @@
         <v>1010036|1011036|1012036</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>272</v>
       </c>
@@ -6244,7 +5612,7 @@
         <v>1010037|1011037|1012037</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>273</v>
       </c>
@@ -6261,7 +5629,7 @@
         <v>1010038|1011038|1012038</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>274</v>
       </c>
@@ -6278,7 +5646,7 @@
         <v>1010039|1011039|1012039</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>275</v>
       </c>
@@ -6295,7 +5663,7 @@
         <v>1010040|1011040|1012040</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>276</v>
       </c>
@@ -6312,7 +5680,7 @@
         <v>1010041|1011041|1012041</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>277</v>
       </c>
@@ -6329,7 +5697,7 @@
         <v>1010042|1011042|1012042</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>278</v>
       </c>
@@ -6346,7 +5714,7 @@
         <v>1010043|1011043|1012043</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>279</v>
       </c>
@@ -6363,7 +5731,7 @@
         <v>1010044|1011044|1012044</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>280</v>
       </c>
@@ -6380,7 +5748,7 @@
         <v>1010045|1011045|1012045</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>281</v>
       </c>
@@ -6397,7 +5765,7 @@
         <v>1010046|1011046|1012046</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>282</v>
       </c>
@@ -6414,7 +5782,7 @@
         <v>1010047|1011047|1012047</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>283</v>
       </c>
@@ -6431,7 +5799,7 @@
         <v>1010048|1011048|1012048</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>284</v>
       </c>
@@ -6448,7 +5816,7 @@
         <v>1010049|1011049|1012049</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>285</v>
       </c>
@@ -6465,7 +5833,7 @@
         <v>1010050|1011050|1012050</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>286</v>
       </c>
@@ -6482,7 +5850,7 @@
         <v>1010051|1011051|1012051</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>287</v>
       </c>
@@ -6499,7 +5867,7 @@
         <v>1010052|1011052|1012052</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>288</v>
       </c>
@@ -6516,7 +5884,7 @@
         <v>1010053|1011053|1012053</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>289</v>
       </c>
@@ -6533,7 +5901,7 @@
         <v>1010054|1011054|1012054</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>290</v>
       </c>
@@ -6550,7 +5918,7 @@
         <v>1010055|1011055|1012055</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>291</v>
       </c>
@@ -6567,7 +5935,7 @@
         <v>1010056|1011056|1012056</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>292</v>
       </c>
@@ -6584,7 +5952,7 @@
         <v>1010057|1011057|1012057</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>293</v>
       </c>
@@ -6601,7 +5969,7 @@
         <v>1010058|1011058|1012058</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>294</v>
       </c>
@@ -6618,7 +5986,7 @@
         <v>1010059|1011059|1012059</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>295</v>
       </c>
@@ -6635,7 +6003,7 @@
         <v>1010060|1011060|1012060</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>296</v>
       </c>
@@ -6652,7 +6020,7 @@
         <v>1010061|1011061|1012061</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>297</v>
       </c>
@@ -6669,7 +6037,7 @@
         <v>1010062|1011062|1012062</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>298</v>
       </c>
@@ -6686,7 +6054,7 @@
         <v>1010063|1011063|1012063</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>299</v>
       </c>
@@ -6703,7 +6071,7 @@
         <v>1010064|1011064|1012064</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>300</v>
       </c>
@@ -6720,7 +6088,7 @@
         <v>1010065|1011065|1012065</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>301</v>
       </c>
@@ -6737,7 +6105,7 @@
         <v>1010066|1011066|1012066</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>302</v>
       </c>
@@ -6754,7 +6122,7 @@
         <v>1010067|1011067|1012067</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>303</v>
       </c>
@@ -6771,7 +6139,7 @@
         <v>1010068|1011068|1012068</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>304</v>
       </c>
@@ -6788,7 +6156,7 @@
         <v>1010069|1011069|1012069</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>305</v>
       </c>
@@ -6805,7 +6173,7 @@
         <v>1010070|1011070|1012070</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>306</v>
       </c>
@@ -6822,7 +6190,7 @@
         <v>1010001|1011001|1012001</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>307</v>
       </c>
@@ -6839,7 +6207,7 @@
         <v>1010002|1011002|1012002</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>308</v>
       </c>
@@ -6856,7 +6224,7 @@
         <v>1010003|1011003|1012003</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>309</v>
       </c>
@@ -6873,7 +6241,7 @@
         <v>1010004|1011004|1012004</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>310</v>
       </c>
@@ -6890,7 +6258,7 @@
         <v>1010005|1011005|1012005</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>311</v>
       </c>
@@ -6907,7 +6275,7 @@
         <v>1010006|1011006|1012006</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>312</v>
       </c>
@@ -6924,7 +6292,7 @@
         <v>1010007|1011007|1012007</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>313</v>
       </c>
@@ -6941,7 +6309,7 @@
         <v>1010008|1011008|1012008</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>314</v>
       </c>
@@ -6958,7 +6326,7 @@
         <v>1010009|1011009|1012009</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>315</v>
       </c>
@@ -6975,7 +6343,7 @@
         <v>1010010|1011010|1012010</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>316</v>
       </c>
@@ -6992,7 +6360,7 @@
         <v>1010011|1011011|1012011</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>317</v>
       </c>
@@ -7009,7 +6377,7 @@
         <v>1010012|1011012|1012012</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>318</v>
       </c>
@@ -7026,7 +6394,7 @@
         <v>1010013|1011013|1012013</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>319</v>
       </c>
@@ -7043,7 +6411,7 @@
         <v>1010014|1011014|1012014</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>320</v>
       </c>
@@ -7060,7 +6428,7 @@
         <v>1010015|1011015|1012015</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>321</v>
       </c>
@@ -7077,7 +6445,7 @@
         <v>1010016|1011016|1012016</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>322</v>
       </c>
@@ -7094,7 +6462,7 @@
         <v>1010017|1011017|1012017</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>323</v>
       </c>
@@ -7111,7 +6479,7 @@
         <v>1010018|1011018|1012018</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>324</v>
       </c>
@@ -7128,7 +6496,7 @@
         <v>1010019|1011019|1012019</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>325</v>
       </c>
@@ -7145,7 +6513,7 @@
         <v>1010020|1011020|1012020</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>326</v>
       </c>
@@ -7162,7 +6530,7 @@
         <v>1010021|1011021|1012021</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>327</v>
       </c>
@@ -7179,7 +6547,7 @@
         <v>1010022|1011022|1012022</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>328</v>
       </c>
@@ -7196,7 +6564,7 @@
         <v>1010023|1011023|1012023</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>329</v>
       </c>
@@ -7213,7 +6581,7 @@
         <v>1010024|1011024|1012024</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>330</v>
       </c>
@@ -7230,7 +6598,7 @@
         <v>1010025|1011025|1012025</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>331</v>
       </c>
@@ -7247,7 +6615,7 @@
         <v>1010026|1011026|1012026</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>332</v>
       </c>
@@ -7264,7 +6632,7 @@
         <v>1010027|1011027|1012027</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>333</v>
       </c>
@@ -7281,7 +6649,7 @@
         <v>1010028|1011028|1012028</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>334</v>
       </c>
@@ -7298,7 +6666,7 @@
         <v>1010029|1011029|1012029</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>335</v>
       </c>
@@ -7315,7 +6683,7 @@
         <v>1010030|1011030|1012030</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>336</v>
       </c>
@@ -7332,7 +6700,7 @@
         <v>1010031|1011031|1012031</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>337</v>
       </c>
@@ -7349,7 +6717,7 @@
         <v>1010032|1011032|1012032</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>338</v>
       </c>
@@ -7366,7 +6734,7 @@
         <v>1010033|1011033|1012033</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>339</v>
       </c>
@@ -7383,7 +6751,7 @@
         <v>1010034|1011034|1012034</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>340</v>
       </c>
@@ -7400,7 +6768,7 @@
         <v>1010035|1011035|1012035</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>341</v>
       </c>
@@ -7417,7 +6785,7 @@
         <v>1010036|1011036|1012036</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>342</v>
       </c>
@@ -7434,7 +6802,7 @@
         <v>1010037|1011037|1012037</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>343</v>
       </c>
@@ -7451,7 +6819,7 @@
         <v>1010038|1011038|1012038</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>344</v>
       </c>
@@ -7468,7 +6836,7 @@
         <v>1010039|1011039|1012039</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>345</v>
       </c>
@@ -7485,7 +6853,7 @@
         <v>1010040|1011040|1012040</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>346</v>
       </c>
@@ -7502,7 +6870,7 @@
         <v>1010041|1011041|1012041</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>347</v>
       </c>
@@ -7519,7 +6887,7 @@
         <v>1010042|1011042|1012042</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>348</v>
       </c>
@@ -7536,7 +6904,7 @@
         <v>1010043|1011043|1012043</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>349</v>
       </c>
@@ -7553,7 +6921,7 @@
         <v>1010044|1011044|1012044</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>350</v>
       </c>
@@ -7570,7 +6938,7 @@
         <v>1010045|1011045|1012045</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>351</v>
       </c>
@@ -7587,7 +6955,7 @@
         <v>1010046|1011046|1012046</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>352</v>
       </c>
@@ -7604,7 +6972,7 @@
         <v>1010047|1011047|1012047</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>353</v>
       </c>
@@ -7621,7 +6989,7 @@
         <v>1010048|1011048|1012048</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>354</v>
       </c>
@@ -7638,7 +7006,7 @@
         <v>1010049|1011049|1012049</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>355</v>
       </c>
@@ -7655,7 +7023,7 @@
         <v>1010050|1011050|1012050</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>356</v>
       </c>
@@ -7672,7 +7040,7 @@
         <v>1010051|1011051|1012051</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360">
         <v>357</v>
       </c>
@@ -7689,7 +7057,7 @@
         <v>1010052|1011052|1012052</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>358</v>
       </c>
@@ -7706,7 +7074,7 @@
         <v>1010053|1011053|1012053</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>359</v>
       </c>
@@ -7723,7 +7091,7 @@
         <v>1010054|1011054|1012054</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>360</v>
       </c>
@@ -7740,7 +7108,7 @@
         <v>1010055|1011055|1012055</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>361</v>
       </c>
@@ -7757,7 +7125,7 @@
         <v>1010056|1011056|1012056</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>362</v>
       </c>
@@ -7774,7 +7142,7 @@
         <v>1010057|1011057|1012057</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>363</v>
       </c>
@@ -7791,7 +7159,7 @@
         <v>1010058|1011058|1012058</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>364</v>
       </c>
@@ -7808,7 +7176,7 @@
         <v>1010059|1011059|1012059</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>365</v>
       </c>
@@ -7825,7 +7193,7 @@
         <v>1010060|1011060|1012060</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>366</v>
       </c>
@@ -7842,7 +7210,7 @@
         <v>1010061|1011061|1012061</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>367</v>
       </c>
@@ -7859,7 +7227,7 @@
         <v>1010062|1011062|1012062</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>368</v>
       </c>
@@ -7876,7 +7244,7 @@
         <v>1010063|1011063|1012063</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>369</v>
       </c>
@@ -7893,7 +7261,7 @@
         <v>1010064|1011064|1012064</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>370</v>
       </c>
@@ -7910,7 +7278,7 @@
         <v>1010065|1011065|1012065</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>371</v>
       </c>
@@ -7927,7 +7295,7 @@
         <v>1010066|1011066|1012066</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>372</v>
       </c>
@@ -7944,7 +7312,7 @@
         <v>1010067|1011067|1012067</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>373</v>
       </c>
@@ -7961,7 +7329,7 @@
         <v>1010068|1011068|1012068</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>374</v>
       </c>
@@ -7978,7 +7346,7 @@
         <v>1010069|1011069|1012069</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>375</v>
       </c>
@@ -7995,7 +7363,7 @@
         <v>1010070|1011070|1012070</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>376</v>
       </c>
@@ -8012,7 +7380,7 @@
         <v>1010001|1011001|1012001</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>377</v>
       </c>
@@ -8029,7 +7397,7 @@
         <v>1010002|1011002|1012002</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>378</v>
       </c>
@@ -8046,7 +7414,7 @@
         <v>1010003|1011003|1012003</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>379</v>
       </c>
@@ -8063,7 +7431,7 @@
         <v>1010004|1011004|1012004</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>380</v>
       </c>
@@ -8080,7 +7448,7 @@
         <v>1010005|1011005|1012005</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>381</v>
       </c>
@@ -8097,7 +7465,7 @@
         <v>1010006|1011006|1012006</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>382</v>
       </c>
@@ -8114,7 +7482,7 @@
         <v>1010007|1011007|1012007</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386">
         <v>383</v>
       </c>
@@ -8131,7 +7499,7 @@
         <v>1010008|1011008|1012008</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387">
         <v>384</v>
       </c>
@@ -8148,7 +7516,7 @@
         <v>1010009|1011009|1012009</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388">
         <v>385</v>
       </c>
@@ -8165,7 +7533,7 @@
         <v>1010010|1011010|1012010</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389">
         <v>386</v>
       </c>
@@ -8182,7 +7550,7 @@
         <v>1010011|1011011|1012011</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390">
         <v>387</v>
       </c>
@@ -8199,7 +7567,7 @@
         <v>1010012|1011012|1012012</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391">
         <v>388</v>
       </c>
@@ -8216,7 +7584,7 @@
         <v>1010013|1011013|1012013</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392">
         <v>389</v>
       </c>
@@ -8233,7 +7601,7 @@
         <v>1010014|1011014|1012014</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393">
         <v>390</v>
       </c>
@@ -8250,7 +7618,7 @@
         <v>1010015|1011015|1012015</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394">
         <v>391</v>
       </c>
@@ -8267,7 +7635,7 @@
         <v>1010016|1011016|1012016</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395">
         <v>392</v>
       </c>
@@ -8284,7 +7652,7 @@
         <v>1010017|1011017|1012017</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396">
         <v>393</v>
       </c>
@@ -8301,7 +7669,7 @@
         <v>1010018|1011018|1012018</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397">
         <v>394</v>
       </c>
@@ -8318,7 +7686,7 @@
         <v>1010019|1011019|1012019</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398">
         <v>395</v>
       </c>
@@ -8335,7 +7703,7 @@
         <v>1010020|1011020|1012020</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399">
         <v>396</v>
       </c>
@@ -8352,7 +7720,7 @@
         <v>1010021|1011021|1012021</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400">
         <v>397</v>
       </c>
@@ -8369,7 +7737,7 @@
         <v>1010022|1011022|1012022</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401">
         <v>398</v>
       </c>
@@ -8386,7 +7754,7 @@
         <v>1010023|1011023|1012023</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402">
         <v>399</v>
       </c>
@@ -8403,7 +7771,7 @@
         <v>1010024|1011024|1012024</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403">
         <v>400</v>
       </c>
@@ -8420,7 +7788,7 @@
         <v>1010025|1011025|1012025</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404">
         <v>401</v>
       </c>
@@ -8437,7 +7805,7 @@
         <v>1010026|1011026|1012026</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405">
         <v>402</v>
       </c>
@@ -8454,7 +7822,7 @@
         <v>1010027|1011027|1012027</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406">
         <v>403</v>
       </c>
@@ -8471,7 +7839,7 @@
         <v>1010028|1011028|1012028</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407">
         <v>404</v>
       </c>
@@ -8488,7 +7856,7 @@
         <v>1010029|1011029|1012029</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408">
         <v>405</v>
       </c>
@@ -8505,7 +7873,7 @@
         <v>1010030|1011030|1012030</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409">
         <v>406</v>
       </c>
@@ -8522,7 +7890,7 @@
         <v>1010031|1011031|1012031</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410">
         <v>407</v>
       </c>
@@ -8539,7 +7907,7 @@
         <v>1010032|1011032|1012032</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411">
         <v>408</v>
       </c>
@@ -8556,7 +7924,7 @@
         <v>1010033|1011033|1012033</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412">
         <v>409</v>
       </c>
@@ -8573,7 +7941,7 @@
         <v>1010034|1011034|1012034</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413">
         <v>410</v>
       </c>
@@ -8590,7 +7958,7 @@
         <v>1010035|1011035|1012035</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414">
         <v>411</v>
       </c>
@@ -8607,7 +7975,7 @@
         <v>1010036|1011036|1012036</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415">
         <v>412</v>
       </c>
@@ -8624,7 +7992,7 @@
         <v>1010037|1011037|1012037</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416">
         <v>413</v>
       </c>
@@ -8641,7 +8009,7 @@
         <v>1010038|1011038|1012038</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417">
         <v>414</v>
       </c>
@@ -8658,7 +8026,7 @@
         <v>1010039|1011039|1012039</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418">
         <v>415</v>
       </c>
@@ -8675,7 +8043,7 @@
         <v>1010040|1011040|1012040</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419">
         <v>416</v>
       </c>
@@ -8692,7 +8060,7 @@
         <v>1010041|1011041|1012041</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420">
         <v>417</v>
       </c>
@@ -8709,7 +8077,7 @@
         <v>1010042|1011042|1012042</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421">
         <v>418</v>
       </c>
@@ -8726,7 +8094,7 @@
         <v>1010043|1011043|1012043</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422">
         <v>419</v>
       </c>
@@ -8743,7 +8111,7 @@
         <v>1010044|1011044|1012044</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423">
         <v>420</v>
       </c>
@@ -8760,7 +8128,7 @@
         <v>1010045|1011045|1012045</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424">
         <v>421</v>
       </c>
@@ -8777,7 +8145,7 @@
         <v>1010046|1011046|1012046</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425">
         <v>422</v>
       </c>
@@ -8794,7 +8162,7 @@
         <v>1010047|1011047|1012047</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426">
         <v>423</v>
       </c>
@@ -8811,7 +8179,7 @@
         <v>1010048|1011048|1012048</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427">
         <v>424</v>
       </c>
@@ -8828,7 +8196,7 @@
         <v>1010049|1011049|1012049</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428">
         <v>425</v>
       </c>
@@ -8845,7 +8213,7 @@
         <v>1010050|1011050|1012050</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429">
         <v>426</v>
       </c>
@@ -8862,7 +8230,7 @@
         <v>1010051|1011051|1012051</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430">
         <v>427</v>
       </c>
@@ -8879,7 +8247,7 @@
         <v>1010052|1011052|1012052</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431">
         <v>428</v>
       </c>
@@ -8896,7 +8264,7 @@
         <v>1010053|1011053|1012053</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432">
         <v>429</v>
       </c>
@@ -8913,7 +8281,7 @@
         <v>1010054|1011054|1012054</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433">
         <v>430</v>
       </c>
@@ -8930,7 +8298,7 @@
         <v>1010055|1011055|1012055</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434">
         <v>431</v>
       </c>
@@ -8947,7 +8315,7 @@
         <v>1010056|1011056|1012056</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435">
         <v>432</v>
       </c>
@@ -8964,7 +8332,7 @@
         <v>1010057|1011057|1012057</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436">
         <v>433</v>
       </c>
@@ -8981,7 +8349,7 @@
         <v>1010058|1011058|1012058</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437">
         <v>434</v>
       </c>
@@ -8998,7 +8366,7 @@
         <v>1010059|1011059|1012059</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438">
         <v>435</v>
       </c>
@@ -9015,7 +8383,7 @@
         <v>1010060|1011060|1012060</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439">
         <v>436</v>
       </c>
@@ -9032,7 +8400,7 @@
         <v>1010061|1011061|1012061</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440">
         <v>437</v>
       </c>
@@ -9049,7 +8417,7 @@
         <v>1010062|1011062|1012062</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441">
         <v>438</v>
       </c>
@@ -9066,7 +8434,7 @@
         <v>1010063|1011063|1012063</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442">
         <v>439</v>
       </c>
@@ -9083,7 +8451,7 @@
         <v>1010064|1011064|1012064</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443">
         <v>440</v>
       </c>
@@ -9100,7 +8468,7 @@
         <v>1010065|1011065|1012065</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444">
         <v>441</v>
       </c>
@@ -9117,7 +8485,7 @@
         <v>1010066|1011066|1012066</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445">
         <v>442</v>
       </c>
@@ -9134,7 +8502,7 @@
         <v>1010067|1011067|1012067</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446">
         <v>443</v>
       </c>
@@ -9151,7 +8519,7 @@
         <v>1010068|1011068|1012068</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447">
         <v>444</v>
       </c>
@@ -9168,7 +8536,7 @@
         <v>1010069|1011069|1012069</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448">
         <v>445</v>
       </c>
@@ -9186,14 +8554,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C53"/>
   <sheetViews>
@@ -9201,36 +8569,36 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -9241,7 +8609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9253,7 +8621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9265,7 +8633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9277,7 +8645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9289,7 +8657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9301,7 +8669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9313,7 +8681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -9325,7 +8693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -9337,7 +8705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -9349,7 +8717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -9361,7 +8729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -9373,7 +8741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -9385,7 +8753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -9397,7 +8765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -9409,7 +8777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -9421,7 +8789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -9433,7 +8801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -9445,7 +8813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -9457,7 +8825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -9469,7 +8837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -9481,7 +8849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -9493,7 +8861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -9505,7 +8873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -9517,7 +8885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -9529,7 +8897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -9541,7 +8909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -9553,7 +8921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -9565,7 +8933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -9577,7 +8945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -9589,7 +8957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -9601,7 +8969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -9613,7 +8981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -9625,7 +8993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -9637,7 +9005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -9649,7 +9017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -9661,7 +9029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -9673,7 +9041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -9685,7 +9053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -9697,7 +9065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -9709,7 +9077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -9721,7 +9089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -9733,7 +9101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -9745,7 +9113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -9757,7 +9125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -9769,7 +9137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -9781,7 +9149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -9793,7 +9161,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -9805,7 +9173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -9817,7 +9185,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -9829,7 +9197,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -9841,50 +9209,50 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -9895,135 +9263,126 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -10031,34 +9390,34 @@
       <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -10069,41 +9428,41 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB861EC-34B9-4A21-9A88-9EA59E3A65EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC54DD6-E82A-437C-AA78-E73B14693118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24900" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27240" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSchedule|卡池" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ACFD8E-88AF-47E0-A00B-370F7C71ADF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSchedule|卡池" sheetId="1" r:id="rId1"/>
@@ -18,25 +12,12 @@
     <sheet name="GachaPlayer|玩家类型" sheetId="3" r:id="rId3"/>
     <sheet name="卡池详情配置" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="178">
   <si>
     <t>卡池id</t>
   </si>
@@ -60,6 +41,9 @@
   </si>
   <si>
     <t>单抽消耗</t>
+  </si>
+  <si>
+    <t>原价</t>
   </si>
   <si>
     <t>允许的抽卡次数</t>
@@ -116,7 +100,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -127,11 +110,13 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ostOne</t>
     </r>
+  </si>
+  <si>
+    <t>originalCost</t>
   </si>
   <si>
     <r>
@@ -140,7 +125,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -151,7 +135,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>mountType</t>
@@ -167,7 +150,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>t</t>
@@ -178,7 +160,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>icket</t>
@@ -200,7 +181,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>daily</t>
@@ -211,7 +191,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Limit</t>
@@ -234,6 +213,18 @@
   </si>
   <si>
     <t>aint</t>
+  </si>
+  <si>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>IN:[1;2]</t>
+  </si>
+  <si>
+    <t>1:{ID:Item}</t>
+  </si>
+  <si>
+    <t>ID_OR_NULL:Item</t>
   </si>
   <si>
     <t>异质探测</t>
@@ -290,7 +281,6 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落id（分段</t>
@@ -301,7 +291,6 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0:小于等于标准3星次数；1:大于标准3星次数小于等于有钱人3星次数；2：大于有钱人3星次数）</t>
@@ -314,7 +303,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>g</t>
@@ -325,7 +313,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>roup_gachaid</t>
@@ -683,8 +670,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,7 +690,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -705,32 +697,159 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,18 +870,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39945677053132728"/>
+        <fgColor theme="3" tint="0.399487289040803"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -785,29 +1090,271 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -815,6 +1362,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -823,18 +1379,62 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1121,35 +1721,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="4" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="33.25" customWidth="1"/>
-    <col min="7" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
-    <col min="13" max="14" width="21.625" customWidth="1"/>
-    <col min="15" max="15" width="23" customWidth="1"/>
-    <col min="16" max="16" width="12.75" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="7" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="15" width="21.625" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="17" max="17" width="12.75" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,236 +1800,277 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="P3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="R3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="F5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>201000</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="11">
+        <v>200</v>
+      </c>
+      <c r="J6" s="11">
+        <v>10</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="C7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2</v>
+      </c>
+      <c r="L7">
         <v>201000</v>
       </c>
-      <c r="O4">
+      <c r="P7">
         <v>100</v>
       </c>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="8">
-        <v>10</v>
-      </c>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="8">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>201000</v>
-      </c>
-      <c r="O6">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="5"/>
+      <c r="R7" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E103"/>
   <sheetViews>
@@ -1438,56 +2078,56 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1498,11 +2138,11 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1513,11 +2153,11 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1528,11 +2168,11 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1543,11 +2183,11 @@
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1558,11 +2198,11 @@
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1573,11 +2213,11 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1588,11 +2228,11 @@
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1603,11 +2243,11 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1618,11 +2258,11 @@
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1633,11 +2273,11 @@
         <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1648,11 +2288,11 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1663,11 +2303,11 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1678,11 +2318,11 @@
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1693,11 +2333,11 @@
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1708,11 +2348,11 @@
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1723,11 +2363,11 @@
         <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1738,11 +2378,11 @@
         <v>6</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1753,11 +2393,11 @@
         <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1768,11 +2408,11 @@
         <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1783,11 +2423,11 @@
         <v>9</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1798,11 +2438,11 @@
         <v>10</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1813,11 +2453,11 @@
         <v>11</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1828,11 +2468,11 @@
         <v>12</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1843,11 +2483,11 @@
         <v>13</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1858,11 +2498,11 @@
         <v>14</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1873,11 +2513,11 @@
         <v>15</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1888,11 +2528,11 @@
         <v>16</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1903,11 +2543,11 @@
         <v>17</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1918,11 +2558,11 @@
         <v>18</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1933,11 +2573,11 @@
         <v>19</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1948,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1962,10 +2602,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1976,10 +2616,10 @@
         <v>2</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1990,10 +2630,10 @@
         <v>3</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2004,10 +2644,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2018,10 +2658,10 @@
         <v>5</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2032,10 +2672,10 @@
         <v>6</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2046,10 +2686,10 @@
         <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2060,10 +2700,10 @@
         <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2074,10 +2714,10 @@
         <v>9</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2088,10 +2728,10 @@
         <v>10</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2102,10 +2742,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2116,10 +2756,10 @@
         <v>12</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2130,10 +2770,10 @@
         <v>13</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2144,10 +2784,10 @@
         <v>14</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2158,10 +2798,10 @@
         <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>47</v>
       </c>
@@ -2172,10 +2812,10 @@
         <v>16</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>48</v>
       </c>
@@ -2186,10 +2826,10 @@
         <v>17</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>49</v>
       </c>
@@ -2200,10 +2840,10 @@
         <v>18</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>50</v>
       </c>
@@ -2214,10 +2854,10 @@
         <v>19</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>51</v>
       </c>
@@ -2228,10 +2868,10 @@
         <v>20</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>52</v>
       </c>
@@ -2242,10 +2882,10 @@
         <v>21</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>53</v>
       </c>
@@ -2256,10 +2896,10 @@
         <v>22</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>54</v>
       </c>
@@ -2270,10 +2910,10 @@
         <v>23</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>55</v>
       </c>
@@ -2284,10 +2924,10 @@
         <v>24</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>56</v>
       </c>
@@ -2298,10 +2938,10 @@
         <v>25</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>57</v>
       </c>
@@ -2312,10 +2952,10 @@
         <v>26</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>58</v>
       </c>
@@ -2326,10 +2966,10 @@
         <v>27</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>59</v>
       </c>
@@ -2340,10 +2980,10 @@
         <v>28</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>60</v>
       </c>
@@ -2354,10 +2994,10 @@
         <v>29</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>61</v>
       </c>
@@ -2368,10 +3008,10 @@
         <v>30</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>62</v>
       </c>
@@ -2382,10 +3022,10 @@
         <v>31</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>63</v>
       </c>
@@ -2396,10 +3036,10 @@
         <v>32</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>64</v>
       </c>
@@ -2410,10 +3050,10 @@
         <v>33</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>65</v>
       </c>
@@ -2424,10 +3064,10 @@
         <v>34</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>66</v>
       </c>
@@ -2438,10 +3078,10 @@
         <v>35</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>67</v>
       </c>
@@ -2452,10 +3092,10 @@
         <v>36</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>68</v>
       </c>
@@ -2466,10 +3106,10 @@
         <v>37</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>69</v>
       </c>
@@ -2480,10 +3120,10 @@
         <v>38</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>70</v>
       </c>
@@ -2494,10 +3134,10 @@
         <v>39</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>71</v>
       </c>
@@ -2508,10 +3148,10 @@
         <v>40</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>72</v>
       </c>
@@ -2522,10 +3162,10 @@
         <v>41</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>73</v>
       </c>
@@ -2536,10 +3176,10 @@
         <v>42</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>74</v>
       </c>
@@ -2550,10 +3190,10 @@
         <v>43</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>75</v>
       </c>
@@ -2564,10 +3204,10 @@
         <v>44</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>76</v>
       </c>
@@ -2578,10 +3218,10 @@
         <v>45</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>77</v>
       </c>
@@ -2592,10 +3232,10 @@
         <v>46</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>78</v>
       </c>
@@ -2606,10 +3246,10 @@
         <v>47</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>79</v>
       </c>
@@ -2620,10 +3260,10 @@
         <v>48</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>80</v>
       </c>
@@ -2634,10 +3274,10 @@
         <v>49</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>81</v>
       </c>
@@ -2648,10 +3288,10 @@
         <v>50</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>82</v>
       </c>
@@ -2662,10 +3302,10 @@
         <v>51</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>83</v>
       </c>
@@ -2676,10 +3316,10 @@
         <v>52</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>84</v>
       </c>
@@ -2690,10 +3330,10 @@
         <v>53</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>85</v>
       </c>
@@ -2704,10 +3344,10 @@
         <v>54</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>86</v>
       </c>
@@ -2718,10 +3358,10 @@
         <v>55</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>87</v>
       </c>
@@ -2732,10 +3372,10 @@
         <v>56</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>88</v>
       </c>
@@ -2746,10 +3386,10 @@
         <v>57</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>89</v>
       </c>
@@ -2760,10 +3400,10 @@
         <v>58</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>90</v>
       </c>
@@ -2774,10 +3414,10 @@
         <v>59</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>91</v>
       </c>
@@ -2788,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>92</v>
       </c>
@@ -2802,10 +3442,10 @@
         <v>61</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>93</v>
       </c>
@@ -2816,10 +3456,10 @@
         <v>62</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>94</v>
       </c>
@@ -2830,10 +3470,10 @@
         <v>63</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>95</v>
       </c>
@@ -2844,10 +3484,10 @@
         <v>64</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>96</v>
       </c>
@@ -2858,10 +3498,10 @@
         <v>65</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>97</v>
       </c>
@@ -2872,10 +3512,10 @@
         <v>66</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>98</v>
       </c>
@@ -2886,10 +3526,10 @@
         <v>67</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>99</v>
       </c>
@@ -2900,10 +3540,10 @@
         <v>68</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>100</v>
       </c>
@@ -2914,18 +3554,18 @@
         <v>69</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C53"/>
   <sheetViews>
@@ -2933,47 +3573,47 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2985,7 +3625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2997,7 +3637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3009,7 +3649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3021,7 +3661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3033,7 +3673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3045,7 +3685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3057,7 +3697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3069,7 +3709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3081,7 +3721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3093,7 +3733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3105,7 +3745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3117,7 +3757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3129,7 +3769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3141,7 +3781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3153,7 +3793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3165,7 +3805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3177,7 +3817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3189,7 +3829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3201,7 +3841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3213,7 +3853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3225,7 +3865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3237,7 +3877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -3249,7 +3889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3261,7 +3901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -3273,7 +3913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -3285,7 +3925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3297,7 +3937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -3309,7 +3949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3321,7 +3961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -3333,7 +3973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -3345,7 +3985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3357,7 +3997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -3369,7 +4009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3381,7 +4021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -3393,7 +4033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -3405,7 +4045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -3417,7 +4057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -3429,7 +4069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>39</v>
       </c>
@@ -3441,7 +4081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>40</v>
       </c>
@@ -3453,7 +4093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>41</v>
       </c>
@@ -3465,7 +4105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>42</v>
       </c>
@@ -3477,7 +4117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -3489,7 +4129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -3501,7 +4141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>45</v>
       </c>
@@ -3513,7 +4153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -3525,7 +4165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -3537,7 +4177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>48</v>
       </c>
@@ -3549,7 +4189,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -3561,7 +4201,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -3573,14 +4213,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3588,79 +4228,79 @@
       <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
@@ -1,18 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292DF244-078B-4DB4-93C9-744C66A31CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSchedule|卡池" sheetId="1" r:id="rId1"/>
-    <sheet name="GachaSwitch|掉落" sheetId="2" r:id="rId2"/>
-    <sheet name="GachaPlayer|玩家类型" sheetId="3" r:id="rId3"/>
+    <sheet name="GachaSwitch|掉落|-c" sheetId="2" r:id="rId2"/>
+    <sheet name="GachaPlayer|玩家类型|-c" sheetId="3" r:id="rId3"/>
     <sheet name="卡池详情配置" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -100,6 +119,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -110,6 +130,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ostOne</t>
@@ -125,6 +146,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -135,6 +157,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>mountType</t>
@@ -150,6 +173,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>t</t>
@@ -160,6 +184,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>icket</t>
@@ -181,6 +206,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>daily</t>
@@ -191,6 +217,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Limit</t>
@@ -281,6 +308,7 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落id（分段</t>
@@ -291,6 +319,7 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0:小于等于标准3星次数；1:大于标准3星次数小于等于有钱人3星次数；2：大于有钱人3星次数）</t>
@@ -303,6 +332,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>g</t>
@@ -313,6 +343,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>roup_gachaid</t>
@@ -637,9 +668,6 @@
     <t>normal</t>
   </si>
   <si>
-    <t>rich</t>
-  </si>
-  <si>
     <t>描述表</t>
   </si>
   <si>
@@ -665,19 +693,17 @@
   </si>
   <si>
     <t>111;104;112|109;102;105;119|103;101;110</t>
+  </si>
+  <si>
+    <t>rich|-c</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +716,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -697,159 +724,40 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -870,13 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399487289040803"/>
+        <fgColor theme="3" tint="0.39945677053132728"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,188 +794,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1090,271 +818,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1378,63 +864,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1721,19 +1166,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="4" width="20.375" customWidth="1"/>
@@ -1748,7 +1194,7 @@
     <col min="18" max="18" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1860,7 +1306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -1916,7 +1362,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -1943,7 +1389,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1983,7 +1429,7 @@
       </c>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2022,7 +1468,7 @@
       </c>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2063,29 +1509,29 @@
       <c r="R7" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2099,7 +1545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2113,7 +1559,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -2127,7 +1573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2142,7 +1588,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2157,7 +1603,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2172,7 +1618,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2187,7 +1633,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2202,7 +1648,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2217,7 +1663,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2232,7 +1678,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2247,7 +1693,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2262,7 +1708,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2277,7 +1723,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2292,7 +1738,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2307,7 +1753,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2322,7 +1768,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2337,7 +1783,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2352,7 +1798,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2367,7 +1813,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2382,7 +1828,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2397,7 +1843,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2412,7 +1858,7 @@
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2427,7 +1873,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2442,7 +1888,7 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2457,7 +1903,7 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2472,7 +1918,7 @@
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2487,7 +1933,7 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2502,7 +1948,7 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2517,7 +1963,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2532,7 +1978,7 @@
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2547,7 +1993,7 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2562,7 +2008,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2577,7 +2023,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2591,7 +2037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2605,7 +2051,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2619,7 +2065,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2633,7 +2079,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2647,7 +2093,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2661,7 +2107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2675,7 +2121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2689,7 +2135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2703,7 +2149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2717,7 +2163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2731,7 +2177,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2745,7 +2191,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2759,7 +2205,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2773,7 +2219,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2787,7 +2233,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2801,7 +2247,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -2815,7 +2261,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -2829,7 +2275,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -2843,7 +2289,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -2857,7 +2303,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>51</v>
       </c>
@@ -2871,7 +2317,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>52</v>
       </c>
@@ -2885,7 +2331,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>53</v>
       </c>
@@ -2899,7 +2345,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>54</v>
       </c>
@@ -2913,7 +2359,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>55</v>
       </c>
@@ -2927,7 +2373,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>56</v>
       </c>
@@ -2941,7 +2387,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>57</v>
       </c>
@@ -2955,7 +2401,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>58</v>
       </c>
@@ -2969,7 +2415,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>59</v>
       </c>
@@ -2983,7 +2429,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>60</v>
       </c>
@@ -2997,7 +2443,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>61</v>
       </c>
@@ -3011,7 +2457,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>62</v>
       </c>
@@ -3025,7 +2471,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>63</v>
       </c>
@@ -3039,7 +2485,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>64</v>
       </c>
@@ -3053,7 +2499,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>65</v>
       </c>
@@ -3067,7 +2513,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>66</v>
       </c>
@@ -3081,7 +2527,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>67</v>
       </c>
@@ -3095,7 +2541,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>68</v>
       </c>
@@ -3109,7 +2555,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>69</v>
       </c>
@@ -3123,7 +2569,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>70</v>
       </c>
@@ -3137,7 +2583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>71</v>
       </c>
@@ -3151,7 +2597,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>72</v>
       </c>
@@ -3165,7 +2611,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>73</v>
       </c>
@@ -3179,7 +2625,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>74</v>
       </c>
@@ -3193,7 +2639,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>75</v>
       </c>
@@ -3207,7 +2653,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>76</v>
       </c>
@@ -3221,7 +2667,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>77</v>
       </c>
@@ -3235,7 +2681,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>78</v>
       </c>
@@ -3249,7 +2695,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>79</v>
       </c>
@@ -3263,7 +2709,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>80</v>
       </c>
@@ -3277,7 +2723,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>81</v>
       </c>
@@ -3291,7 +2737,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>82</v>
       </c>
@@ -3305,7 +2751,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>83</v>
       </c>
@@ -3319,7 +2765,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>84</v>
       </c>
@@ -3333,7 +2779,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>85</v>
       </c>
@@ -3347,7 +2793,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>86</v>
       </c>
@@ -3361,7 +2807,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>87</v>
       </c>
@@ -3375,7 +2821,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>88</v>
       </c>
@@ -3389,7 +2835,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>89</v>
       </c>
@@ -3403,7 +2849,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>90</v>
       </c>
@@ -3417,7 +2863,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>91</v>
       </c>
@@ -3431,7 +2877,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>92</v>
       </c>
@@ -3445,7 +2891,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>93</v>
       </c>
@@ -3459,7 +2905,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>94</v>
       </c>
@@ -3473,7 +2919,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>95</v>
       </c>
@@ -3487,7 +2933,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>96</v>
       </c>
@@ -3501,7 +2947,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>97</v>
       </c>
@@ -3515,7 +2961,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>98</v>
       </c>
@@ -3529,7 +2975,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>99</v>
       </c>
@@ -3543,7 +2989,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>100</v>
       </c>
@@ -3558,29 +3004,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
@@ -3591,18 +3037,18 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -3613,7 +3059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3625,7 +3071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3637,7 +3083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3649,7 +3095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3661,7 +3107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3673,7 +3119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3685,7 +3131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3697,7 +3143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3709,7 +3155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3721,7 +3167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3733,7 +3179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3745,7 +3191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3757,7 +3203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3769,7 +3215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3781,7 +3227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3793,7 +3239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3805,7 +3251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3817,7 +3263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3829,7 +3275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3841,7 +3287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3853,7 +3299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3865,7 +3311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3877,7 +3323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -3889,7 +3335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3901,7 +3347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -3913,7 +3359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -3925,7 +3371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3937,7 +3383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -3949,7 +3395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3961,7 +3407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -3973,7 +3419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -3985,7 +3431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3997,7 +3443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -4009,7 +3455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -4021,7 +3467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -4033,7 +3479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -4045,7 +3491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -4057,7 +3503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -4069,7 +3515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -4081,7 +3527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -4093,7 +3539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -4105,7 +3551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -4117,7 +3563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -4129,7 +3575,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -4141,7 +3587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -4153,7 +3599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -4165,7 +3611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -4177,7 +3623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -4189,7 +3635,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -4201,7 +3647,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -4213,14 +3659,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4228,34 +3674,34 @@
       <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -4266,41 +3712,41 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
         <v>174</v>
       </c>
-      <c r="C4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" t="s">
-        <v>177</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292DF244-078B-4DB4-93C9-744C66A31CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D7B0EF-595D-4F4B-BCEB-831E87B8DCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSchedule|卡池" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -130,7 +129,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ostOne</t>
@@ -146,7 +144,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>a</t>
@@ -157,7 +154,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>mountType</t>
@@ -173,7 +169,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>t</t>
@@ -184,7 +179,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>icket</t>
@@ -206,7 +200,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>daily</t>
@@ -217,7 +210,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Limit</t>
@@ -308,7 +300,6 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落id（分段</t>
@@ -319,7 +310,6 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0:小于等于标准3星次数；1:大于标准3星次数小于等于有钱人3星次数；2：大于有钱人3星次数）</t>
@@ -332,7 +322,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>g</t>
@@ -343,7 +332,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>roup_gachaid</t>
@@ -668,6 +656,9 @@
     <t>normal</t>
   </si>
   <si>
+    <t>rich</t>
+  </si>
+  <si>
     <t>描述表</t>
   </si>
   <si>
@@ -693,17 +684,13 @@
   </si>
   <si>
     <t>111;104;112|109;102;105;119|103;101;110</t>
-  </si>
-  <si>
-    <t>rich|-c</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,7 +703,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -724,37 +710,25 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -827,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,9 +836,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1520,7 +1491,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3015,8 +2986,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3044,8 +3015,8 @@
       <c r="B2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>177</v>
+      <c r="C2" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -3681,13 +3652,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -3695,10 +3666,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -3717,10 +3688,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -3728,10 +3699,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -3739,10 +3710,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D7B0EF-595D-4F4B-BCEB-831E87B8DCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0DF5AA-E2A4-40D9-8A14-6967809260CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24630" yWindow="780" windowWidth="15150" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSchedule|卡池" sheetId="1" r:id="rId1"/>
@@ -243,9 +243,6 @@
     <t>1:{ID:Item}</t>
   </si>
   <si>
-    <t>ID_OR_NULL:Item</t>
-  </si>
-  <si>
     <t>异质探测</t>
   </si>
   <si>
@@ -685,12 +682,16 @@
   <si>
     <t>111;104;112|109;102;105;119|103;101;110</t>
   </si>
+  <si>
+    <t>ID:Item$Null</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +728,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -801,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -837,6 +846,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1146,8 +1158,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1350,8 +1362,8 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="7" t="s">
-        <v>43</v>
+      <c r="K4" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -1365,29 +1377,29 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="11">
         <v>1</v>
@@ -1405,25 +1417,25 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="I6" s="11">
         <v>200</v>
@@ -1444,29 +1456,29 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
       <c r="H7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="11">
         <v>2</v>
@@ -1507,13 +1519,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1521,13 +1533,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1555,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -1570,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -1585,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -1600,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -1615,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -1630,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -1645,7 +1657,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -1660,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -1675,7 +1687,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -1690,7 +1702,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -1705,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -1720,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -1735,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -1750,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -1765,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -1780,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -1795,7 +1807,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -1810,7 +1822,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="6"/>
     </row>
@@ -1825,7 +1837,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="6"/>
     </row>
@@ -1840,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="6"/>
     </row>
@@ -1855,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -1870,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="6"/>
     </row>
@@ -1885,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1900,7 +1912,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -1915,7 +1927,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="6"/>
     </row>
@@ -1930,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="6"/>
     </row>
@@ -1945,7 +1957,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="6"/>
     </row>
@@ -1960,7 +1972,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" s="6"/>
     </row>
@@ -1975,7 +1987,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="6"/>
     </row>
@@ -1990,7 +2002,7 @@
         <v>19</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="6"/>
     </row>
@@ -2005,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -2019,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -2033,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -2047,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -2061,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -2075,7 +2087,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -2089,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -2103,7 +2115,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -2117,7 +2129,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -2131,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -2145,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -2159,7 +2171,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -2173,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -2187,7 +2199,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -2201,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -2215,7 +2227,7 @@
         <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -2229,7 +2241,7 @@
         <v>16</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -2243,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -2257,7 +2269,7 @@
         <v>18</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -2271,7 +2283,7 @@
         <v>19</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -2285,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -2299,7 +2311,7 @@
         <v>21</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
@@ -2313,7 +2325,7 @@
         <v>22</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -2327,7 +2339,7 @@
         <v>23</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -2341,7 +2353,7 @@
         <v>24</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -2355,7 +2367,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -2369,7 +2381,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -2383,7 +2395,7 @@
         <v>27</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
@@ -2397,7 +2409,7 @@
         <v>28</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -2411,7 +2423,7 @@
         <v>29</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -2425,7 +2437,7 @@
         <v>30</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -2439,7 +2451,7 @@
         <v>31</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
@@ -2453,7 +2465,7 @@
         <v>32</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
@@ -2467,7 +2479,7 @@
         <v>33</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
@@ -2481,7 +2493,7 @@
         <v>34</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
@@ -2495,7 +2507,7 @@
         <v>35</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -2509,7 +2521,7 @@
         <v>36</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
@@ -2523,7 +2535,7 @@
         <v>37</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
@@ -2537,7 +2549,7 @@
         <v>38</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
@@ -2551,7 +2563,7 @@
         <v>39</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
@@ -2565,7 +2577,7 @@
         <v>40</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
@@ -2579,7 +2591,7 @@
         <v>41</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
@@ -2593,7 +2605,7 @@
         <v>42</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -2607,7 +2619,7 @@
         <v>43</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
@@ -2621,7 +2633,7 @@
         <v>44</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
@@ -2635,7 +2647,7 @@
         <v>45</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
@@ -2649,7 +2661,7 @@
         <v>46</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -2663,7 +2675,7 @@
         <v>47</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -2677,7 +2689,7 @@
         <v>48</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
@@ -2691,7 +2703,7 @@
         <v>49</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
@@ -2705,7 +2717,7 @@
         <v>50</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
@@ -2719,7 +2731,7 @@
         <v>51</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -2733,7 +2745,7 @@
         <v>52</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -2747,7 +2759,7 @@
         <v>53</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -2761,7 +2773,7 @@
         <v>54</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -2775,7 +2787,7 @@
         <v>55</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -2789,7 +2801,7 @@
         <v>56</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
@@ -2803,7 +2815,7 @@
         <v>57</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
@@ -2817,7 +2829,7 @@
         <v>58</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
@@ -2831,7 +2843,7 @@
         <v>59</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -2845,7 +2857,7 @@
         <v>60</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -2859,7 +2871,7 @@
         <v>61</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -2873,7 +2885,7 @@
         <v>62</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -2887,7 +2899,7 @@
         <v>63</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
@@ -2901,7 +2913,7 @@
         <v>64</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
@@ -2915,7 +2927,7 @@
         <v>65</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
@@ -2929,7 +2941,7 @@
         <v>66</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -2943,7 +2955,7 @@
         <v>67</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -2957,7 +2969,7 @@
         <v>68</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
@@ -2971,7 +2983,7 @@
         <v>69</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2986,7 +2998,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -2999,13 +3011,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -3013,10 +3025,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -3652,13 +3664,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -3666,10 +3678,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -3688,10 +3700,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
         <v>174</v>
-      </c>
-      <c r="C4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -3699,10 +3711,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -3710,10 +3722,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0DF5AA-E2A4-40D9-8A14-6967809260CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D7B0EF-595D-4F4B-BCEB-831E87B8DCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24630" yWindow="780" windowWidth="15150" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSchedule|卡池" sheetId="1" r:id="rId1"/>
@@ -243,6 +243,9 @@
     <t>1:{ID:Item}</t>
   </si>
   <si>
+    <t>ID_OR_NULL:Item</t>
+  </si>
+  <si>
     <t>异质探测</t>
   </si>
   <si>
@@ -682,16 +685,12 @@
   <si>
     <t>111;104;112|109;102;105;119|103;101;110</t>
   </si>
-  <si>
-    <t>ID:Item$Null</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,14 +727,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -810,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,9 +837,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1158,8 +1146,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1362,8 +1350,8 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="12" t="s">
-        <v>177</v>
+      <c r="K4" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -1377,29 +1365,29 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="11">
         <v>1</v>
@@ -1417,25 +1405,25 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I6" s="11">
         <v>200</v>
@@ -1456,29 +1444,29 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" s="11">
         <v>2</v>
@@ -1519,13 +1507,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1533,13 +1521,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1567,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -1582,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -1597,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -1612,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -1627,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -1642,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -1657,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -1672,7 +1660,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -1687,7 +1675,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -1702,7 +1690,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -1717,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -1732,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -1747,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -1762,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -1777,7 +1765,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -1792,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -1807,7 +1795,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -1822,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" s="6"/>
     </row>
@@ -1837,7 +1825,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" s="6"/>
     </row>
@@ -1852,7 +1840,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="6"/>
     </row>
@@ -1867,7 +1855,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -1882,7 +1870,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="6"/>
     </row>
@@ -1897,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1912,7 +1900,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -1927,7 +1915,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" s="6"/>
     </row>
@@ -1942,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E29" s="6"/>
     </row>
@@ -1957,7 +1945,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E30" s="6"/>
     </row>
@@ -1972,7 +1960,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E31" s="6"/>
     </row>
@@ -1987,7 +1975,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E32" s="6"/>
     </row>
@@ -2002,7 +1990,7 @@
         <v>19</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E33" s="6"/>
     </row>
@@ -2017,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -2031,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -2045,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -2059,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -2073,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -2087,7 +2075,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -2101,7 +2089,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -2115,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -2129,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -2143,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -2157,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -2171,7 +2159,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -2185,7 +2173,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -2199,7 +2187,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -2213,7 +2201,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -2227,7 +2215,7 @@
         <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -2241,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -2255,7 +2243,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -2269,7 +2257,7 @@
         <v>18</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -2283,7 +2271,7 @@
         <v>19</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -2297,7 +2285,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -2311,7 +2299,7 @@
         <v>21</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
@@ -2325,7 +2313,7 @@
         <v>22</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -2339,7 +2327,7 @@
         <v>23</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -2353,7 +2341,7 @@
         <v>24</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -2367,7 +2355,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -2381,7 +2369,7 @@
         <v>26</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -2395,7 +2383,7 @@
         <v>27</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
@@ -2409,7 +2397,7 @@
         <v>28</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -2423,7 +2411,7 @@
         <v>29</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -2437,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -2451,7 +2439,7 @@
         <v>31</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
@@ -2465,7 +2453,7 @@
         <v>32</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
@@ -2479,7 +2467,7 @@
         <v>33</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
@@ -2493,7 +2481,7 @@
         <v>34</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
@@ -2507,7 +2495,7 @@
         <v>35</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -2521,7 +2509,7 @@
         <v>36</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
@@ -2535,7 +2523,7 @@
         <v>37</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
@@ -2549,7 +2537,7 @@
         <v>38</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
@@ -2563,7 +2551,7 @@
         <v>39</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
@@ -2577,7 +2565,7 @@
         <v>40</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
@@ -2591,7 +2579,7 @@
         <v>41</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
@@ -2605,7 +2593,7 @@
         <v>42</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -2619,7 +2607,7 @@
         <v>43</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
@@ -2633,7 +2621,7 @@
         <v>44</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
@@ -2647,7 +2635,7 @@
         <v>45</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
@@ -2661,7 +2649,7 @@
         <v>46</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -2675,7 +2663,7 @@
         <v>47</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -2689,7 +2677,7 @@
         <v>48</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
@@ -2703,7 +2691,7 @@
         <v>49</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
@@ -2717,7 +2705,7 @@
         <v>50</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
@@ -2731,7 +2719,7 @@
         <v>51</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -2745,7 +2733,7 @@
         <v>52</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -2759,7 +2747,7 @@
         <v>53</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -2773,7 +2761,7 @@
         <v>54</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -2787,7 +2775,7 @@
         <v>55</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -2801,7 +2789,7 @@
         <v>56</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
@@ -2815,7 +2803,7 @@
         <v>57</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
@@ -2829,7 +2817,7 @@
         <v>58</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
@@ -2843,7 +2831,7 @@
         <v>59</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -2857,7 +2845,7 @@
         <v>60</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -2871,7 +2859,7 @@
         <v>61</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -2885,7 +2873,7 @@
         <v>62</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -2899,7 +2887,7 @@
         <v>63</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
@@ -2913,7 +2901,7 @@
         <v>64</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
@@ -2927,7 +2915,7 @@
         <v>65</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
@@ -2941,7 +2929,7 @@
         <v>66</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -2955,7 +2943,7 @@
         <v>67</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -2969,7 +2957,7 @@
         <v>68</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
@@ -2983,7 +2971,7 @@
         <v>69</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2998,7 +2986,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -3011,13 +2999,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -3025,10 +3013,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -3664,13 +3652,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -3678,10 +3666,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -3700,10 +3688,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -3711,10 +3699,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -3722,10 +3710,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/008_抽卡表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0DF5AA-E2A4-40D9-8A14-6967809260CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCD210E-2C48-4EDA-9DD1-34005676B4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24630" yWindow="780" windowWidth="15150" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSchedule|卡池" sheetId="1" r:id="rId1"/>
@@ -683,7 +683,7 @@
     <t>111;104;112|109;102;105;119|103;101;110</t>
   </si>
   <si>
-    <t>ID:Item$Null</t>
+    <t>ID:Item|Null</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1158,8 +1158,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
